--- a/rule extaction with cp-nets/Rules extracted from DT.xlsx
+++ b/rule extaction with cp-nets/Rules extracted from DT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dr. Nauman\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nadia Khan\Documents\GitHub\DataSets\rule extaction with cp-nets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Agriculture rules " sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="163">
   <si>
     <t>Dtree Path</t>
   </si>
@@ -486,6 +487,123 @@
   </si>
   <si>
     <t xml:space="preserve">td &lt;=971, at &lt;=63, pn = "Chemistry" </t>
+  </si>
+  <si>
+    <t>Rules #</t>
+  </si>
+  <si>
+    <t>Rule</t>
+  </si>
+  <si>
+    <t>Programme Name = Agriculture AND 
+Admission Test &lt;= 41 AND Terminal Degree &lt;= 716</t>
+  </si>
+  <si>
+    <t>Programme Name = Agriculture AND 
+Admission Test &lt;= 41 AND Terminal Degree &gt; 716 AND SSC &lt;= 911</t>
+  </si>
+  <si>
+    <t>Programme Name = Agriculture AND Terminal Degree &gt; 692 AND 
+Optional Subject 3 &lt;= 41</t>
+  </si>
+  <si>
+    <t>Programme Name = Agriculture AND Terminal Degree &gt; 692 AND Admission Test &gt; 41 AND Optional Subject 3 &gt;= 41 AND Optional Subject 4 &lt;= 123 
+AND SSC &lt;= 772 AND Optional Subject 6 &lt;= 136 
+AND Optional Subject 5 &lt;= 133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programme Name = Agriculture AND Terminal Degree &gt; 692 AND Admission Test &gt; 41 AND Optional Subject 3 &gt;= 41 AND Optional Subject 4 &lt;= 123 
+AND SSC &lt;= 772 AND Optional Subject 6 &lt;= 136 
+AND Optional Subject 5 &lt;= 133 </t>
+  </si>
+  <si>
+    <t>Programme Name = Agriculture AND Terminal Degree &gt; 692 AND Optional Subject 3 &gt;= 41 AND Optional Subject 4 &lt;= 123 
+AND SSC &lt;= 772 AND Optional Subject 6 &lt;= 136 
+AND Optional Subject 5 &gt;= 133</t>
+  </si>
+  <si>
+    <t>Programme Name = Agriculture AND Terminal Degree &gt; 692 AND Admission Test &gt; 41 AND Optional Subject 3 &gt;= 41 AND Optional Subject 4 &lt;= 123 AND 
+SSC &lt;= 772 AND Optional Subject 6 &gt; 136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programme Name = Agriculture AND Terminal Degree &gt; 692 AND Admission Test &gt; 41 AND Optional Subject 3 &gt;= 41 AND Optional Subject 4 &lt;= 123 AND
+SSC &gt; 772 </t>
+  </si>
+  <si>
+    <t>Programme Name = Agriculture AND Terminal Degree &gt; 692 Admission Test &gt; 41 AND Optional Subject 3 &gt;= 41 AND Optional Subject 4 &gt; 123</t>
+  </si>
+  <si>
+    <t>Programme Name = Agriculture AND Terminal Degree &gt; 692 AND Admission Test &gt; 41 AND Optional Subject 3 &gt; 129</t>
+  </si>
+  <si>
+    <t>Programme Name = Physics AND Terminal Degree &lt;= 890</t>
+  </si>
+  <si>
+    <t>Programme Name = Physics 
+AND Terminal Degree &gt; 890 AND Admission Test &lt;= 47 AND 
+Optional Subject 3 &lt;= 167 AND SSC &lt;= 905</t>
+  </si>
+  <si>
+    <t>Programme Name = Physics 
+AND Terminal Degree &gt; 890 AND Admission Test &lt;= 47 AND 
+Optional Subject 3 &lt;= 167 AND SSC &gt; 905</t>
+  </si>
+  <si>
+    <t>Programme Name = Physics 
+AND Terminal Degree &gt; 890 AND Admission Test &lt;= 47 AND 
+Optional Subject 3 &gt; 167</t>
+  </si>
+  <si>
+    <t>Programme Name = Physics
+AND Terminal Degree &gt; 890 AND Admission Test &gt; 47</t>
+  </si>
+  <si>
+    <t>Programme Name = Chemistry 
+AND Terminal Degree &lt;= 947</t>
+  </si>
+  <si>
+    <t>Programme Name = Chemistry
+AND Terminal Degree &lt;= 947 AND Admission Test &lt;= 73</t>
+  </si>
+  <si>
+    <t>Programme Name = Chemistry AND 
+Terminal Degree &lt;= 947 AND Admission Test &gt; 73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programme Name = Agriculture AND Admission Test &lt;= 70 AND 
+Terminal Degree &lt;= 971 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programme Name = Physics AND Admission Test &lt;= 70 AND
+Terminal Degree &lt;= 971 </t>
+  </si>
+  <si>
+    <t>Programme Name = Chemistery AND 
+Terminal Degree &lt;= 971 AND  Admission Test &lt;= 63</t>
+  </si>
+  <si>
+    <t>Programme Name = Chemistery AND Terminal Degree &lt;= 971 AND Admission Test &gt; 63 AND Terminal Degree &lt;= 957</t>
+  </si>
+  <si>
+    <t>Programme Name = Chemistery AND Terminal Degree &lt;= 971 AND Admission Test &gt; 63 AND Terminal Degree &gt; 957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programme Name = Agriculture AND 
+Terminal Degree &gt; 971 AND Admission Test &lt;= 49 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programme Name = Physics AND
+Terminal Degree &gt; 971 AND Admission Test &lt;= 49  </t>
+  </si>
+  <si>
+    <t>Programme Name = Chemistry AND
+Terminal Degree &gt; 971 AND Admission Test &lt;= 49</t>
+  </si>
+  <si>
+    <t>Terminal Degree &gt; 971 AND Admission Test &gt; 49 AND SSC &lt;= 992</t>
+  </si>
+  <si>
+    <t>Terminal Degree &gt; 971 AND Admission Test &gt; 49 AND SSC &gt; 992</t>
   </si>
 </sst>
 </file>
@@ -632,7 +750,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -716,6 +834,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1000,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,6 +1263,9 @@
         <v>8</v>
       </c>
       <c r="E9" s="4"/>
+      <c r="F9" s="29" t="s">
+        <v>135</v>
+      </c>
       <c r="G9" s="4" t="s">
         <v>102</v>
       </c>
@@ -1170,7 +1294,9 @@
         <v>22</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>136</v>
+      </c>
       <c r="G11" t="s">
         <v>103</v>
       </c>
@@ -1189,7 +1315,9 @@
         <v>8</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>136</v>
+      </c>
       <c r="G12" t="s">
         <v>104</v>
       </c>
@@ -1228,7 +1356,9 @@
         <v>22</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="G15" t="s">
         <v>105</v>
       </c>
@@ -1257,7 +1387,9 @@
         <v>8</v>
       </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="G17" t="s">
         <v>106</v>
       </c>
@@ -1301,7 +1433,9 @@
         <v>8</v>
       </c>
       <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="F20" s="7" t="s">
+        <v>139</v>
+      </c>
       <c r="G20" t="s">
         <v>107</v>
       </c>
@@ -1320,7 +1454,9 @@
         <v>22</v>
       </c>
       <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="F21" s="9" t="s">
+        <v>140</v>
+      </c>
       <c r="G21" t="s">
         <v>108</v>
       </c>
@@ -1339,7 +1475,9 @@
         <v>22</v>
       </c>
       <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
+      <c r="F22" s="11" t="s">
+        <v>141</v>
+      </c>
       <c r="G22" t="s">
         <v>109</v>
       </c>
@@ -1358,7 +1496,9 @@
         <v>22</v>
       </c>
       <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
+      <c r="F23" s="13" t="s">
+        <v>142</v>
+      </c>
       <c r="G23" t="s">
         <v>110</v>
       </c>
@@ -1377,7 +1517,9 @@
         <v>22</v>
       </c>
       <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="F24" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="G24" t="s">
         <v>111</v>
       </c>
@@ -1396,7 +1538,9 @@
         <v>22</v>
       </c>
       <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+      <c r="F25" s="15" t="s">
+        <v>144</v>
+      </c>
       <c r="G25" t="s">
         <v>112</v>
       </c>
@@ -1425,7 +1569,9 @@
         <v>8</v>
       </c>
       <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="F27" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="G27" t="s">
         <v>113</v>
       </c>
@@ -1460,7 +1606,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:17" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>51</v>
       </c>
@@ -1474,12 +1620,14 @@
         <v>22</v>
       </c>
       <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
+      <c r="F31" s="17" t="s">
+        <v>146</v>
+      </c>
       <c r="G31" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>53</v>
       </c>
@@ -1493,12 +1641,14 @@
         <v>8</v>
       </c>
       <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="F32" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="G32" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
         <v>55</v>
       </c>
@@ -1512,7 +1662,9 @@
         <v>8</v>
       </c>
       <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
+      <c r="F33" s="20" t="s">
+        <v>148</v>
+      </c>
       <c r="G33" t="s">
         <v>116</v>
       </c>
@@ -1531,7 +1683,9 @@
         <v>22</v>
       </c>
       <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
+      <c r="F34" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="G34" t="s">
         <v>117</v>
       </c>
@@ -1546,7 +1700,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="22" t="s">
         <v>60</v>
       </c>
@@ -1560,7 +1714,9 @@
         <v>8</v>
       </c>
       <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
+      <c r="F36" s="22" t="s">
+        <v>150</v>
+      </c>
       <c r="G36" t="s">
         <v>131</v>
       </c>
@@ -1575,7 +1731,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="24" t="s">
         <v>63</v>
       </c>
@@ -1589,7 +1745,9 @@
         <v>8</v>
       </c>
       <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
+      <c r="F38" s="24" t="s">
+        <v>151</v>
+      </c>
       <c r="G38" t="s">
         <v>118</v>
       </c>
@@ -1608,7 +1766,9 @@
         <v>22</v>
       </c>
       <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
+      <c r="F39" s="26" t="s">
+        <v>152</v>
+      </c>
       <c r="G39" t="s">
         <v>119</v>
       </c>
@@ -1657,7 +1817,9 @@
         <v>22</v>
       </c>
       <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
+      <c r="F43" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="G43" t="s">
         <v>120</v>
       </c>
@@ -1676,7 +1838,9 @@
         <v>22</v>
       </c>
       <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
+      <c r="F44" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="G44" t="s">
         <v>121</v>
       </c>
@@ -1705,7 +1869,9 @@
         <v>8</v>
       </c>
       <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
+      <c r="F46" s="4" t="s">
+        <v>155</v>
+      </c>
       <c r="G46" t="s">
         <v>132</v>
       </c>
@@ -1734,7 +1900,9 @@
         <v>8</v>
       </c>
       <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
+      <c r="F48" s="4" t="s">
+        <v>156</v>
+      </c>
       <c r="G48" t="s">
         <v>123</v>
       </c>
@@ -1753,7 +1921,9 @@
         <v>22</v>
       </c>
       <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
+      <c r="F49" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="G49" t="s">
         <v>122</v>
       </c>
@@ -1792,7 +1962,9 @@
         <v>22</v>
       </c>
       <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
+      <c r="F52" s="4" t="s">
+        <v>158</v>
+      </c>
       <c r="G52" t="s">
         <v>124</v>
       </c>
@@ -1811,7 +1983,9 @@
         <v>22</v>
       </c>
       <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
+      <c r="F53" s="4" t="s">
+        <v>159</v>
+      </c>
       <c r="G53" t="s">
         <v>125</v>
       </c>
@@ -1830,7 +2004,9 @@
         <v>8</v>
       </c>
       <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
+      <c r="F54" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="G54" t="s">
         <v>126</v>
       </c>
@@ -1859,7 +2035,9 @@
         <v>22</v>
       </c>
       <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
+      <c r="F56" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="G56" t="s">
         <v>127</v>
       </c>
@@ -1878,7 +2056,9 @@
         <v>8</v>
       </c>
       <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
+      <c r="F57" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="G57" t="s">
         <v>128</v>
       </c>
@@ -1887,7 +2067,9 @@
       <c r="A58" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B58" s="4"/>
+      <c r="B58" s="4">
+        <v>32</v>
+      </c>
       <c r="C58" s="3" t="s">
         <v>96</v>
       </c>
@@ -1895,7 +2077,9 @@
         <v>22</v>
       </c>
       <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
+      <c r="F58" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="G58" t="s">
         <v>129</v>
       </c>
@@ -1904,4 +2088,59 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="116.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:4" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/rule extaction with cp-nets/Rules extracted from DT.xlsx
+++ b/rule extaction with cp-nets/Rules extracted from DT.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Agriculture rules " sheetId="2" r:id="rId2"/>
+    <sheet name="Physics rules" sheetId="3" r:id="rId3"/>
+    <sheet name="Chemistry rules" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="165">
   <si>
     <t>Dtree Path</t>
   </si>
@@ -604,6 +606,12 @@
   </si>
   <si>
     <t>Terminal Degree &gt; 971 AND Admission Test &gt; 49 AND SSC &gt; 992</t>
+  </si>
+  <si>
+    <t>CP-nets rule</t>
+  </si>
+  <si>
+    <t>td &gt; 692, pn = "Agriculture", at &gt; 41, os3 &gt;= 41, os4 &lt;= 123, ssc &lt;= 772, os5 &lt;=133, os6 &lt;=136</t>
   </si>
 </sst>
 </file>
@@ -1121,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2092,10 +2100,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2111,8 +2119,11 @@
       <c r="B1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="116.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2135,9 +2146,419 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:4" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:4" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:4" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:4" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:4" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:4" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:4" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:4" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>11</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:4" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>12</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>13</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:4" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:4" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:4" ht="218.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:4" ht="218.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:4" ht="180" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>17</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:4" ht="141.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:4" ht="141.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>28</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:4" ht="116.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>19</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:4" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:4" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>21</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:4" ht="141.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>22</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:4" ht="141.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>23</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:4" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>24</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:4" ht="192.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>25</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:4" ht="192.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>26</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:4" ht="141.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>29</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:4" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>30</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:4" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>31</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:4" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>32</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/rule extaction with cp-nets/Rules extracted from DT.xlsx
+++ b/rule extaction with cp-nets/Rules extracted from DT.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="167">
   <si>
     <t>Dtree Path</t>
   </si>
@@ -612,6 +612,12 @@
   </si>
   <si>
     <t>td &gt; 692, pn = "Agriculture", at &gt; 41, os3 &gt;= 41, os4 &lt;= 123, ssc &lt;= 772, os5 &lt;=133, os6 &lt;=136</t>
+  </si>
+  <si>
+    <t>td&gt;=705</t>
+  </si>
+  <si>
+    <t>Revised</t>
   </si>
 </sst>
 </file>
@@ -2100,10 +2106,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2112,7 +2118,7 @@
     <col min="4" max="4" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>133</v>
       </c>
@@ -2122,8 +2128,11 @@
       <c r="D1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2133,9 +2142,12 @@
       <c r="D2" s="28" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:4" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:5" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2146,8 +2158,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2158,8 +2170,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:4" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:5" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -2170,8 +2182,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:4" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:5" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -2182,8 +2194,8 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:4" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:5" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6</v>
       </c>
@@ -2194,8 +2206,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:4" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:5" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>7</v>
       </c>
@@ -2206,8 +2218,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:4" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:5" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>8</v>
       </c>

--- a/rule extaction with cp-nets/Rules extracted from DT.xlsx
+++ b/rule extaction with cp-nets/Rules extracted from DT.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="168">
   <si>
     <t>Dtree Path</t>
   </si>
@@ -618,6 +618,9 @@
   </si>
   <si>
     <t>Revised</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Label </t>
   </si>
 </sst>
 </file>
@@ -2106,19 +2109,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>133</v>
       </c>
@@ -2126,179 +2129,182 @@
         <v>134</v>
       </c>
       <c r="D1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" t="s">
         <v>163</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="E2" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:5" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:6" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="E4" s="28" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:5" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:6" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="E8" s="29" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:5" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:6" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="E10" s="29" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:5" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:6" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="E12" s="29" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:5" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:6" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>7</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="E14" s="29" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:5" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:6" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>8</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="E16" s="29" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:4" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:5" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>9</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="E18" s="29" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:4" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:5" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>10</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="E20" s="29" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:4" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>11</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="E22" s="29" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:4" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:5" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>12</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="E24" s="29" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:5" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>13</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="E26" s="29" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:4" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:5" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>124</v>
       </c>
     </row>
